--- a/Modelagens/SP Medical Group - Modelo Fisico.xlsx
+++ b/Modelagens/SP Medical Group - Modelo Fisico.xlsx
@@ -8,12 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilherme_2\Documents\trabalhos do leo\Senai\Projeto SP Med Group\Modelagens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B9C80D8-510F-4A4E-90C7-30864415EF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B53C3B4B-A7A7-421A-9A97-C36C8D4DF1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{B086FAC9-79BC-4260-B97E-0B4595FF5AA5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Especialidade" sheetId="1" r:id="rId1"/>
+    <sheet name="Consulta" sheetId="2" r:id="rId2"/>
+    <sheet name="Status_Consulta" sheetId="3" r:id="rId3"/>
+    <sheet name="Tipo_Usuario" sheetId="4" r:id="rId4"/>
+    <sheet name="Clinica" sheetId="5" r:id="rId5"/>
+    <sheet name="Médico" sheetId="6" r:id="rId6"/>
+    <sheet name="Pacientes" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,10 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="95">
-  <si>
-    <t>Especialidade</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="89">
   <si>
     <t>Id_especialidade</t>
   </si>
@@ -96,9 +99,6 @@
     <t>Psiquiatria</t>
   </si>
   <si>
-    <t>Tipo_Usuario</t>
-  </si>
-  <si>
     <t>Id_Tipo</t>
   </si>
   <si>
@@ -114,18 +114,12 @@
     <t>Paciente</t>
   </si>
   <si>
-    <t>Clinica</t>
-  </si>
-  <si>
     <t>Id_Clinica</t>
   </si>
   <si>
     <t>endereco</t>
   </si>
   <si>
-    <t>hora_funcionamento</t>
-  </si>
-  <si>
     <t>cnpj</t>
   </si>
   <si>
@@ -147,12 +141,6 @@
     <t>SP Medical Group</t>
   </si>
   <si>
-    <t>De segunda a sabado das 07:00 ás 18:30</t>
-  </si>
-  <si>
-    <t>Médicos</t>
-  </si>
-  <si>
     <t>Id_Medico</t>
   </si>
   <si>
@@ -192,9 +180,6 @@
     <t>Helena Strada</t>
   </si>
   <si>
-    <t>Status_Consulta</t>
-  </si>
-  <si>
     <t>Realizada</t>
   </si>
   <si>
@@ -207,9 +192,6 @@
     <t>Reagendada</t>
   </si>
   <si>
-    <t>Pacientes</t>
-  </si>
-  <si>
     <t>Id_Prontuario</t>
   </si>
   <si>
@@ -306,9 +288,6 @@
     <t>11 95436-8769</t>
   </si>
   <si>
-    <t>Consulta</t>
-  </si>
-  <si>
     <t>Medico</t>
   </si>
   <si>
@@ -319,13 +298,22 @@
   </si>
   <si>
     <t>descricao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguardando </t>
+  </si>
+  <si>
+    <t>hora_abertura</t>
+  </si>
+  <si>
+    <t>hora_fechamento</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,19 +328,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="23">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -363,12 +353,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,12 +370,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -399,12 +377,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,12 +394,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -435,12 +401,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,12 +418,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -475,7 +429,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -502,49 +456,23 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -559,64 +487,49 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="20" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -931,10 +844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A69C2230-7C12-4463-8668-906C62528F91}">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,691 +861,1161 @@
     <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="68.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="D1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="G1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="25"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA896D04-AAD0-426E-B3B8-A0B4B5B59027}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
+        <v>7</v>
+      </c>
+      <c r="B2" s="16">
+        <v>3</v>
+      </c>
+      <c r="C2" s="17">
+        <v>43850.625</v>
+      </c>
+      <c r="D2" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16">
+        <v>2</v>
+      </c>
+      <c r="C3" s="17">
+        <v>43836.416666666664</v>
+      </c>
+      <c r="D3" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16">
+        <v>2</v>
+      </c>
+      <c r="C4" s="17">
+        <v>43868.458333333336</v>
+      </c>
+      <c r="D4" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>2</v>
+      </c>
+      <c r="B5" s="16">
+        <v>2</v>
+      </c>
+      <c r="C5" s="17">
+        <v>43137.416666666664</v>
+      </c>
+      <c r="D5" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <v>4</v>
+      </c>
+      <c r="B6" s="16">
+        <v>1</v>
+      </c>
+      <c r="C6" s="17">
+        <v>43503.458854166667</v>
+      </c>
+      <c r="D6" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>7</v>
+      </c>
+      <c r="B7" s="16">
+        <v>3</v>
+      </c>
+      <c r="C7" s="17">
+        <v>43898.625</v>
+      </c>
+      <c r="D7" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>4</v>
+      </c>
+      <c r="B8" s="16">
+        <v>1</v>
+      </c>
+      <c r="C8" s="17">
+        <v>43899.458854166667</v>
+      </c>
+      <c r="D8" s="16">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B771F967-BFB8-47D8-9473-63A145912F90}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7D541E-7048-4538-99E8-4C1B004BC280}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="8" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EDD77D8-8F81-4D62-8857-4F92FFAE974C}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="G1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="8" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="C2" s="19">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D2" s="21">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA07B744-BE97-4B81-B9B5-25D39DF1B03A}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B2" s="9">
+        <v>2</v>
+      </c>
+      <c r="C2" s="9">
+        <v>2</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
+        <v>17</v>
+      </c>
+      <c r="C3" s="9">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="D3" s="6">
+      <c r="B4" s="9">
+        <v>16</v>
+      </c>
+      <c r="C4" s="9">
+        <v>2</v>
+      </c>
+      <c r="D4" s="9">
         <v>1</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="9">
+      <c r="E4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D021BD14-630D-4F1F-AE64-0ECE4951E4FF}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="68.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="B2" s="11">
+        <v>3</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="11">
+        <v>94839859000</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="12">
+        <v>30602</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B3" s="11">
+        <v>3</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="11">
+        <v>73556944057</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="12">
+        <v>37095</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>3</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="11">
+        <v>16839338002</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="12">
+        <v>28773</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="D4" s="6">
-        <v>2</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="B5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="11">
+        <v>14332654765</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="12">
+        <v>31333</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="D5" s="6">
+      <c r="B6" s="11">
         <v>3</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="11">
+        <v>91305348010</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="12">
+        <v>27633</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="11">
+        <v>3</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="11">
+        <v>79799299004</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="12">
+        <v>26379</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>8</v>
+      <c r="B8" s="11">
+        <v>3</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="13">
-        <v>1</v>
-      </c>
-      <c r="E9" s="13">
-        <v>2</v>
-      </c>
-      <c r="F9" s="13">
-        <v>2</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="13">
-        <v>2</v>
-      </c>
-      <c r="E10" s="13">
-        <v>17</v>
-      </c>
-      <c r="F10" s="13">
-        <v>2</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="13">
-        <v>3</v>
-      </c>
-      <c r="E11" s="13">
-        <v>16</v>
-      </c>
-      <c r="F11" s="13">
-        <v>2</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="16">
-        <v>1</v>
-      </c>
-      <c r="E18" s="16">
-        <v>3</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="H18" s="16">
-        <v>94839859000</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J18" s="17">
-        <v>30602</v>
-      </c>
-      <c r="K18" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="16">
-        <v>2</v>
-      </c>
-      <c r="E19" s="16">
-        <v>3</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="H19" s="16">
-        <v>73556944057</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="J19" s="17">
-        <v>37095</v>
-      </c>
-      <c r="K19" s="16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D20" s="16">
-        <v>3</v>
-      </c>
-      <c r="E20" s="16">
-        <v>3</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="H20" s="16">
-        <v>16839338002</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="J20" s="17">
-        <v>28773</v>
-      </c>
-      <c r="K20" s="16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="22"/>
-      <c r="D21" s="16">
-        <v>4</v>
-      </c>
-      <c r="E21" s="16">
-        <v>3</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="H21" s="16">
-        <v>14332654765</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J21" s="17">
-        <v>31333</v>
-      </c>
-      <c r="K21" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="16">
-        <v>5</v>
-      </c>
-      <c r="E22" s="16">
-        <v>3</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="H22" s="16">
-        <v>91305348010</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="J22" s="17">
-        <v>27633</v>
-      </c>
-      <c r="K22" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="18">
-        <v>1</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="16">
-        <v>6</v>
-      </c>
-      <c r="E23" s="16">
-        <v>3</v>
-      </c>
-      <c r="F23" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="E8" s="11">
+        <v>13771913039</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="H23" s="16">
-        <v>79799299004</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="J23" s="17">
-        <v>26379</v>
-      </c>
-      <c r="K23" s="16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="18">
-        <v>2</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="16">
-        <v>7</v>
-      </c>
-      <c r="E24" s="16">
-        <v>3</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H24" s="16">
-        <v>13771913039</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="J24" s="17">
+      <c r="G8" s="12">
         <v>43164</v>
       </c>
-      <c r="K24" s="16"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="18">
-        <v>3</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="18">
-        <v>4</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="21"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="25">
-        <v>7</v>
-      </c>
-      <c r="B30" s="25">
-        <v>3</v>
-      </c>
-      <c r="C30" s="26">
-        <v>43850.625</v>
-      </c>
-      <c r="D30" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="25">
-        <v>2</v>
-      </c>
-      <c r="B31" s="25">
-        <v>2</v>
-      </c>
-      <c r="C31" s="26">
-        <v>43836.416666666664</v>
-      </c>
-      <c r="D31" s="25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="25">
-        <v>3</v>
-      </c>
-      <c r="B32" s="25">
-        <v>2</v>
-      </c>
-      <c r="C32" s="26">
-        <v>43868.458333333336</v>
-      </c>
-      <c r="D32" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="25">
-        <v>2</v>
-      </c>
-      <c r="B33" s="25">
-        <v>2</v>
-      </c>
-      <c r="C33" s="26">
-        <v>43137.416666666664</v>
-      </c>
-      <c r="D33" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="25">
-        <v>4</v>
-      </c>
-      <c r="B34" s="25">
-        <v>1</v>
-      </c>
-      <c r="C34" s="26">
-        <v>43503.458854166667</v>
-      </c>
-      <c r="D34" s="25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="25">
-        <v>7</v>
-      </c>
-      <c r="B35" s="25">
-        <v>3</v>
-      </c>
-      <c r="C35" s="26">
-        <v>43898.625</v>
-      </c>
-      <c r="D35" s="25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="25">
-        <v>4</v>
-      </c>
-      <c r="B36" s="25">
-        <v>1</v>
-      </c>
-      <c r="C36" s="26">
-        <v>43899.458854166667</v>
-      </c>
-      <c r="D36" s="25">
-        <v>3</v>
-      </c>
+      <c r="H8" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D16:K16"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>